--- a/natmiOut/OldD7/LR-pairs_lrc2p/L1cam-Erbb2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/L1cam-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Erbb2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.0856776876501</v>
+        <v>11.88712433333333</v>
       </c>
       <c r="H2">
-        <v>10.0856776876501</v>
+        <v>35.661373</v>
       </c>
       <c r="I2">
-        <v>0.7009831880546255</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="J2">
-        <v>0.7009831880546255</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.78585804326703</v>
+        <v>3.155977333333333</v>
       </c>
       <c r="N2">
-        <v>2.78585804326703</v>
+        <v>9.467931999999999</v>
       </c>
       <c r="O2">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="P2">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="Q2">
-        <v>28.09726630793886</v>
+        <v>37.51549495451511</v>
       </c>
       <c r="R2">
-        <v>28.09726630793886</v>
+        <v>337.639454590636</v>
       </c>
       <c r="S2">
-        <v>0.2370039171710256</v>
+        <v>0.213568798233565</v>
       </c>
       <c r="T2">
-        <v>0.2370039171710256</v>
+        <v>0.213568798233565</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.0856776876501</v>
+        <v>11.88712433333333</v>
       </c>
       <c r="H3">
-        <v>10.0856776876501</v>
+        <v>35.661373</v>
       </c>
       <c r="I3">
-        <v>0.7009831880546255</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="J3">
-        <v>0.7009831880546255</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.15316566712496</v>
+        <v>3.165953666666667</v>
       </c>
       <c r="N3">
-        <v>3.15316566712496</v>
+        <v>9.497861</v>
       </c>
       <c r="O3">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="P3">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="Q3">
-        <v>31.80181261438656</v>
+        <v>37.63408486923922</v>
       </c>
       <c r="R3">
-        <v>31.80181261438656</v>
+        <v>338.706763823153</v>
       </c>
       <c r="S3">
-        <v>0.2682522235488417</v>
+        <v>0.2142439087605874</v>
       </c>
       <c r="T3">
-        <v>0.2682522235488417</v>
+        <v>0.2142439087605874</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.0856776876501</v>
+        <v>11.88712433333333</v>
       </c>
       <c r="H4">
-        <v>10.0856776876501</v>
+        <v>35.661373</v>
       </c>
       <c r="I4">
-        <v>0.7009831880546255</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="J4">
-        <v>0.7009831880546255</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.30066986069673</v>
+        <v>2.496042666666666</v>
       </c>
       <c r="N4">
-        <v>2.30066986069673</v>
+        <v>7.488128</v>
       </c>
       <c r="O4">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="P4">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="Q4">
-        <v>23.20381468067808</v>
+        <v>29.67076951997155</v>
       </c>
       <c r="R4">
-        <v>23.20381468067808</v>
+        <v>267.0369256797439</v>
       </c>
       <c r="S4">
-        <v>0.1957270473347582</v>
+        <v>0.1689102222089374</v>
       </c>
       <c r="T4">
-        <v>0.1957270473347582</v>
+        <v>0.1689102222089374</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.38188700845157</v>
+        <v>0.3785896666666667</v>
       </c>
       <c r="H5">
-        <v>2.38188700845157</v>
+        <v>1.135769</v>
       </c>
       <c r="I5">
-        <v>0.1655478987609108</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="J5">
-        <v>0.1655478987609108</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.78585804326703</v>
+        <v>3.155977333333333</v>
       </c>
       <c r="N5">
-        <v>2.78585804326703</v>
+        <v>9.467931999999999</v>
       </c>
       <c r="O5">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="P5">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="Q5">
-        <v>6.635599080648051</v>
+        <v>1.194820406634222</v>
       </c>
       <c r="R5">
-        <v>6.635599080648051</v>
+        <v>10.753383659708</v>
       </c>
       <c r="S5">
-        <v>0.0559720991235966</v>
+        <v>0.00680189235565714</v>
       </c>
       <c r="T5">
-        <v>0.0559720991235966</v>
+        <v>0.00680189235565714</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.38188700845157</v>
+        <v>0.3785896666666667</v>
       </c>
       <c r="H6">
-        <v>2.38188700845157</v>
+        <v>1.135769</v>
       </c>
       <c r="I6">
-        <v>0.1655478987609108</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="J6">
-        <v>0.1655478987609108</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.15316566712496</v>
+        <v>3.165953666666667</v>
       </c>
       <c r="N6">
-        <v>3.15316566712496</v>
+        <v>9.497861</v>
       </c>
       <c r="O6">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="P6">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="Q6">
-        <v>7.51048433802047</v>
+        <v>1.198597343345444</v>
       </c>
       <c r="R6">
-        <v>7.51048433802047</v>
+        <v>10.787376090109</v>
       </c>
       <c r="S6">
-        <v>0.06335186450005451</v>
+        <v>0.00682339376022072</v>
       </c>
       <c r="T6">
-        <v>0.06335186450005451</v>
+        <v>0.00682339376022072</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>2.38188700845157</v>
+        <v>0.3785896666666667</v>
       </c>
       <c r="H7">
-        <v>2.38188700845157</v>
+        <v>1.135769</v>
       </c>
       <c r="I7">
-        <v>0.1655478987609108</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="J7">
-        <v>0.1655478987609108</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.30066986069673</v>
+        <v>2.496042666666666</v>
       </c>
       <c r="N7">
-        <v>2.30066986069673</v>
+        <v>7.488128</v>
       </c>
       <c r="O7">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="P7">
-        <v>0.2792178909139627</v>
+        <v>0.2830630665299106</v>
       </c>
       <c r="Q7">
-        <v>5.479935651929624</v>
+        <v>0.944975961159111</v>
       </c>
       <c r="R7">
-        <v>5.479935651929624</v>
+        <v>8.504783650432</v>
       </c>
       <c r="S7">
-        <v>0.04622393513725975</v>
+        <v>0.005379573976807416</v>
       </c>
       <c r="T7">
-        <v>0.04622393513725975</v>
+        <v>0.005379573976807416</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.92033769516674</v>
+        <v>4.123197999999999</v>
       </c>
       <c r="H8">
-        <v>1.92033769516674</v>
+        <v>12.369594</v>
       </c>
       <c r="I8">
-        <v>0.1334689131844636</v>
+        <v>0.2069808238940481</v>
       </c>
       <c r="J8">
-        <v>0.1334689131844636</v>
+        <v>0.2069808238940482</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.78585804326703</v>
+        <v>3.155977333333333</v>
       </c>
       <c r="N8">
-        <v>2.78585804326703</v>
+        <v>9.467931999999999</v>
       </c>
       <c r="O8">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="P8">
-        <v>0.3381021416915304</v>
+        <v>0.3579027849973545</v>
       </c>
       <c r="Q8">
-        <v>5.349788213869132</v>
+        <v>13.01271942884533</v>
       </c>
       <c r="R8">
-        <v>5.349788213869132</v>
+        <v>117.114474859608</v>
       </c>
       <c r="S8">
-        <v>0.04512612539690808</v>
+        <v>0.0740790133127268</v>
       </c>
       <c r="T8">
-        <v>0.04512612539690808</v>
+        <v>0.07407901331272682</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.92033769516674</v>
+        <v>4.123197999999999</v>
       </c>
       <c r="H9">
-        <v>1.92033769516674</v>
+        <v>12.369594</v>
       </c>
       <c r="I9">
-        <v>0.1334689131844636</v>
+        <v>0.2069808238940481</v>
       </c>
       <c r="J9">
-        <v>0.1334689131844636</v>
+        <v>0.2069808238940482</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.15316566712496</v>
+        <v>3.165953666666667</v>
       </c>
       <c r="N9">
-        <v>3.15316566712496</v>
+        <v>9.497861</v>
       </c>
       <c r="O9">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="P9">
-        <v>0.382679967394507</v>
+        <v>0.359034148472735</v>
       </c>
       <c r="Q9">
-        <v>6.055142889685642</v>
+        <v>13.05385382649266</v>
       </c>
       <c r="R9">
-        <v>6.055142889685642</v>
+        <v>117.484684438434</v>
       </c>
       <c r="S9">
-        <v>0.05107587934561082</v>
+        <v>0.0743131838569847</v>
       </c>
       <c r="T9">
-        <v>0.05107587934561082</v>
+        <v>0.0743131838569847</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,247 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.123197999999999</v>
+      </c>
+      <c r="H10">
+        <v>12.369594</v>
+      </c>
+      <c r="I10">
+        <v>0.2069808238940481</v>
+      </c>
+      <c r="J10">
+        <v>0.2069808238940482</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.496042666666666</v>
+      </c>
+      <c r="N10">
+        <v>7.488128</v>
+      </c>
+      <c r="O10">
+        <v>0.2830630665299106</v>
+      </c>
+      <c r="P10">
+        <v>0.2830630665299106</v>
+      </c>
+      <c r="Q10">
+        <v>10.29167813111467</v>
+      </c>
+      <c r="R10">
+        <v>92.62510318003199</v>
+      </c>
+      <c r="S10">
+        <v>0.05858862672433667</v>
+      </c>
+      <c r="T10">
+        <v>0.05858862672433668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.92033769516674</v>
-      </c>
-      <c r="H10">
-        <v>1.92033769516674</v>
-      </c>
-      <c r="I10">
-        <v>0.1334689131844636</v>
-      </c>
-      <c r="J10">
-        <v>0.1334689131844636</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.30066986069673</v>
-      </c>
-      <c r="N10">
-        <v>2.30066986069673</v>
-      </c>
-      <c r="O10">
-        <v>0.2792178909139627</v>
-      </c>
-      <c r="P10">
-        <v>0.2792178909139627</v>
-      </c>
-      <c r="Q10">
-        <v>4.418063057629943</v>
-      </c>
-      <c r="R10">
-        <v>4.418063057629943</v>
-      </c>
-      <c r="S10">
-        <v>0.03726690844194472</v>
-      </c>
-      <c r="T10">
-        <v>0.03726690844194472</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.531764333333333</v>
+      </c>
+      <c r="H11">
+        <v>10.595293</v>
+      </c>
+      <c r="I11">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="J11">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.155977333333333</v>
+      </c>
+      <c r="N11">
+        <v>9.467931999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.3579027849973545</v>
+      </c>
+      <c r="P11">
+        <v>0.3579027849973545</v>
+      </c>
+      <c r="Q11">
+        <v>11.14616818267511</v>
+      </c>
+      <c r="R11">
+        <v>100.315513644076</v>
+      </c>
+      <c r="S11">
+        <v>0.0634530810954055</v>
+      </c>
+      <c r="T11">
+        <v>0.0634530810954055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.531764333333333</v>
+      </c>
+      <c r="H12">
+        <v>10.595293</v>
+      </c>
+      <c r="I12">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="J12">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.165953666666667</v>
+      </c>
+      <c r="N12">
+        <v>9.497861</v>
+      </c>
+      <c r="O12">
+        <v>0.359034148472735</v>
+      </c>
+      <c r="P12">
+        <v>0.359034148472735</v>
+      </c>
+      <c r="Q12">
+        <v>11.18140224091922</v>
+      </c>
+      <c r="R12">
+        <v>100.632620168273</v>
+      </c>
+      <c r="S12">
+        <v>0.06365366209494208</v>
+      </c>
+      <c r="T12">
+        <v>0.06365366209494208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.531764333333333</v>
+      </c>
+      <c r="H13">
+        <v>10.595293</v>
+      </c>
+      <c r="I13">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="J13">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.496042666666666</v>
+      </c>
+      <c r="N13">
+        <v>7.488128</v>
+      </c>
+      <c r="O13">
+        <v>0.2830630665299106</v>
+      </c>
+      <c r="P13">
+        <v>0.2830630665299106</v>
+      </c>
+      <c r="Q13">
+        <v>8.815434464611554</v>
+      </c>
+      <c r="R13">
+        <v>79.33891018150399</v>
+      </c>
+      <c r="S13">
+        <v>0.05018464361982918</v>
+      </c>
+      <c r="T13">
+        <v>0.05018464361982918</v>
       </c>
     </row>
   </sheetData>
